--- a/docs/PT2ov/PT2ov_01.08.24_output.xlsx
+++ b/docs/PT2ov/PT2ov_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,851 +505,1011 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730814165.3442955</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730814167.0003536</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814165.3442955.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814167.0003536.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>288.55</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730814170.2780864</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730814170.2780864.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730814170.2780864.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>287.94</v>
       </c>
-      <c r="J4" t="n">
-        <v>287.94</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730814195.3960264</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730814196.7634008</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814195.3960264.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814196.7634008.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.77</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.32</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4500000000000171</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730814198.5353305</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730814200.196122</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814198.5353305.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814200.196122.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.43</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>131.77</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6599999999999966</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730814201.2072487</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730814201.4768505</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814201.2072487.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814201.4768505.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.94</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730814203.1454275</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1730814203.1454275.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1730814203.1454275.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.01</v>
       </c>
-      <c r="J8" t="n">
-        <v>132.01</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.09000000000000341</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730814218.4631906</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730814219.7770882</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814218.4631906.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814219.7770882.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6722</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6714.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730814227.555367</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730814230.2361202</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814227.555367.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814230.2361202.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6709</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6701</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730814235.8164778</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1730814235.8164778.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1730814235.8164778.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6686.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>6686.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>6687</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730814236.115005</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730814236.66882</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814236.115005.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814236.66882.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>514.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>517.95</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.550000000000068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730814237.4426644</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730814237.6609483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814237.4426644.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814237.6609483.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>516.05</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>516.95</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9000000000000909</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730814238.180044</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730814243.674374</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814238.180044.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814243.674374.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>516.3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>514.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.899999999999977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730814251.496172</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730814252.4636645</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814251.496172.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814252.4636645.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>512.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>512.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.05000000000006821</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730814252.564587</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730814256.8431969</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814252.564587.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814256.8431969.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>512.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>511.45</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730814258.496704</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730814258.9623775</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814258.496704.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814258.9623775.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>511.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>506.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.849999999999966</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730814264.473001</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730814265.150224</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814264.473001.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814265.150224.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>506.85</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>505.25</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730814266.1384091</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730814266.1940668</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814266.1384091.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814266.1940668.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>506.1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>506.1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1342,514 +1517,613 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730814266.6452305</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730814266.6452305.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1730814266.6452305.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>505.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>505.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730814270.8231432</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730814283.196767</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814270.8231432.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814283.196767.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>233.18</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>233.08</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730814292.0735307</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730814292.1639485</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814292.0735307.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814292.1639485.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>231.43</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>231.44</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730814292.2220757</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730814295.67799</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814292.2220757.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814295.67799.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>231.43</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>230.13</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.300000000000011</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730814298.3079662</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730814298.3079662.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1730814298.3079662.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>229.74</v>
       </c>
-      <c r="J24" t="n">
-        <v>229.74</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>229.85</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1099999999999852</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730814299.0652778</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730814299.2031515</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814299.0652778.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814299.2031515.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1041.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.199999999999818</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730814301.9742212</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730814316.7923837</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814301.9742212.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814316.7923837.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1048.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1041.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730814321.2236624</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730814324.988953</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814321.2236624.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814324.988953.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1035.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1031.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.600000000000136</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730814326.167467</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730814326.3871057</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814326.167467.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814326.3871057.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1032.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1033</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730814326.8111942</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730814327.942101</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814326.8111942.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814327.942101.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1032.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1031</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730814331.0889828</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1730814331.0889828.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1730814331.0889828.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1857,980 +2131,1169 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730814355.0343275</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730814358.1555934</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814355.0343275.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814358.1555934.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>128.84</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>128.86</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730814361.1285646</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730814361.1285646.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730814361.1285646.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>128.6</v>
       </c>
-      <c r="J32" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>128.64</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730814363.660374</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730814363.8337376</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814363.660374.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814363.8337376.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>165.76</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>166.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730814365.9801705</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730814372.0020354</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814365.9801705.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814372.0020354.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>166.56</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>166.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730814373.1000223</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730814380.9165256</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814373.1000223.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814380.9165256.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>166.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>166.54</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730814388.5886817</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730814389.4963818</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814388.5886817.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814389.4963818.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>165.24</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>164.92</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730814391.0707607</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730814392.3462498</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814391.0707607.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814392.3462498.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>164.86</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>164.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730814393.3434792</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730814393.3434792.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730814393.3434792.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>164.72</v>
       </c>
-      <c r="J38" t="n">
-        <v>164.72</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730814407.7425983</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730814413.321077</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730814407.7425983.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730814413.321077.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>50.805</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>50.955</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730814430.999452</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730814435.509488</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730814430.999452.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730814435.509488.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1414.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1418</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730814438.5597508</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730814447.6599429</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730814438.5597508.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730814447.6599429.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1419.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1419</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730814456.244188</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1730814456.244188.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1730814456.244188.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1411.6</v>
       </c>
-      <c r="J42" t="n">
-        <v>1411.6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730814467.8422306</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730814468.3413813</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730814467.8422306.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730814468.3413813.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>61.1</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>61.25</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730814470.8873923</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730814491.3668978</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730814470.8873923.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730814491.3668978.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>61.31</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>60.59</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.7199999999999989</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730814491.3834906</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730814491.3834906.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730814491.3834906.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>60.59</v>
       </c>
-      <c r="J45" t="n">
-        <v>60.59</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730814493.8756988</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730814507.3813834</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1730814493.8756988.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1730814507.3813834.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.01</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>58.46</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.5499999999999972</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730814521.7394185</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730814521.7394185.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/SELG1730814521.7394185.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>57.14</v>
       </c>
-      <c r="J47" t="n">
-        <v>57.14</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730814524.2642987</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730814527.1235387</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730814524.2642987.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730814527.1235387.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>144.62</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>145.46</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730814546.6586308</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730814546.8547711</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730814546.6586308.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730814546.8547711.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>143.94</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>144.04</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730814546.9113803</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730814549.6821427</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730814546.9113803.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730814549.6821427.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>144.06</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>143.66</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730814554.9163148</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730814554.9163148.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730814554.9163148.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>142.98</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>142.98</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,1087 +3301,1294 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730814558.145317</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730814561.325323</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730814558.145317.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730814561.325323.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>21.354</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>21.41</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.05600000000000094</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730814561.840092</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730814569.9260135</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730814561.840092.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730814569.9260135.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>21.353</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>21.206</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.147000000000002</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730814585.6583438</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1730814585.6583438.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1730814585.6583438.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>20.842</v>
       </c>
-      <c r="J54" t="n">
-        <v>20.842</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730814590.191979</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730814595.6158278</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730814590.191979.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730814595.6158278.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>683.6</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>683.85</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730814609.6079311</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730814609.8173943</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730814609.6079311.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730814609.8173943.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>680.9</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>679.55</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.350000000000023</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730814614.263273</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730814617.0833478</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730814614.263273.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730814617.0833478.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>678.55</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>678.4</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730814618.355458</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730814618.355458.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730814618.355458.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>678.75</v>
       </c>
-      <c r="J58" t="n">
-        <v>678.75</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.4500000000000455</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730814640.7670896</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730814647.5580983</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/FEES1730814640.7670896.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/FEES1730814647.5580983.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.10082</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.0009399999999999964</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730814683.438944</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730814683.438944.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1730814683.438944.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.6015</v>
       </c>
-      <c r="J60" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.000200000000000089</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730814685.4352355</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730814685.9234865</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814685.4352355.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814685.9234865.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>3038.15</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>3040.65</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730814686.071511</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730814687.3362463</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814686.071511.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814687.3362463.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>3037.4</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>3031.9</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-5.5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730814688.7826092</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730814688.9169526</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814688.7826092.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814688.9169526.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>3027.5</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>3027.25</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730814688.9726157</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730814690.5739486</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814688.9726157.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814690.5739486.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>3027.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3026</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.199999999999818</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730814696.15663</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730814696.9711435</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814696.15663.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814696.9711435.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3022.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3016</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>6.199999999999818</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730814697.2241583</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730814699.539204</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814697.2241583.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814699.539204.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>3018.4</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3017.95</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.4500000000002728</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730814701.062703</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730814701.329276</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814701.062703.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814701.329276.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>3023.15</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>3025.7</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2.549999999999727</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730814701.9665377</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730814703.0561206</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814701.9665377.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814703.0561206.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>3025.7</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>2.050000000000182</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730814705.3668938</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730814706.1835067</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814705.3668938.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1730814706.1835067.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3012.7</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3007.1</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>5.599999999999909</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730814713.0222845</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730814713.0222845.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730814713.0222845.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2996.3</v>
       </c>
-      <c r="J70" t="n">
-        <v>2996.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730814717.7606094</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730814723.7035956</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730814717.7606094.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730814723.7035956.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>34.895</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>34.885</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730814725.3026736</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730814736.823927</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730814725.3026736.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730814736.823927.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>34.895</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>34.935</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730814737.6356108</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730814738.8006427</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730814737.6356108.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730814738.8006427.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>34.71</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>34.59</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730814745.4249754</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730814745.4249754.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730814745.4249754.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>34.37</v>
       </c>
-      <c r="J74" t="n">
-        <v>34.37</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
+      <c r="L74" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +4602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3956,6 +4626,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3964,11 +4649,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.29999999999973</v>
+        <v>15.54999999999973</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.554999999999973</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3977,11 +4671,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.800000000000068</v>
+        <v>8.800000000000068</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.9777777777777854</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3995,6 +4698,15 @@
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4003,11 +4715,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.30000000000004</v>
+        <v>1.360000000000042</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2266666666666737</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4021,6 +4742,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2850000000000037</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7899999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4029,11 +4759,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.75</v>
+        <v>1.299999999999955</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.3249999999999886</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4042,11 +4781,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.390000000000015</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4055,11 +4803,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1499999999999915</v>
+        <v>0.09499999999999176</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.02374999999999794</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4068,11 +4825,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.190000000000026</v>
+        <v>1.080000000000041</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2700000000000102</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4699999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4081,11 +4847,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5700000000000003</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4094,11 +4869,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09100000000000108</v>
+        <v>-0.08000000000000185</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.02666666666666728</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4107,11 +4891,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4120,11 +4913,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.200000000000045</v>
+        <v>2.200000000000045</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.7333333333333485</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4133,11 +4935,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02000000000001023</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4146,11 +4957,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5500000000000114</v>
+        <v>0.7400000000000091</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4159,11 +4979,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5499999999999972</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.3049999999999997</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4177,6 +5006,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.1499999999999986</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4185,11 +5023,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.000200000000000089</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4203,6 +5050,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.0009399999999999964</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.93</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4216,6 +5072,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
